--- a/output/below_50/tRNA-Val-CAC-1-1.xlsx
+++ b/output/below_50/tRNA-Val-CAC-1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="80">
   <si>
     <t>chr1</t>
   </si>
@@ -252,183 +252,6 @@
   </si>
   <si>
     <t>55</t>
-  </si>
-  <si>
-    <t>161369544</t>
-  </si>
-  <si>
-    <t>161369567</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>161369547</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GCCTGGTTTCCGTAGTGTAG</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 40, Doench 2016: 69%, Moreno-Mateos: 27%</t>
-  </si>
-  <si>
-    <t>3.21086E+11</t>
-  </si>
-  <si>
-    <t>161369584</t>
-  </si>
-  <si>
-    <t>161369607</t>
-  </si>
-  <si>
-    <t>161369604</t>
-  </si>
-  <si>
-    <t>AAATGACTCTGAAAAGTCAG</t>
-  </si>
-  <si>
-    <t>91% (64)</t>
-  </si>
-  <si>
-    <t>44% (42)</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 35, Doench 2016: 91%, Moreno-Mateos: 44%</t>
-  </si>
-  <si>
-    <t>3.62832E+11</t>
-  </si>
-  <si>
-    <t>161369725</t>
-  </si>
-  <si>
-    <t>161369748</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>161369745</t>
-  </si>
-  <si>
-    <t>GGGGTCATGACTGAGGGCAC</t>
-  </si>
-  <si>
-    <t>27% (42)</t>
-  </si>
-  <si>
-    <t>97% (81)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 44, Doench 2016: 27%, Moreno-Mateos: 97%</t>
-  </si>
-  <si>
-    <t>2.58824E+11</t>
-  </si>
-  <si>
-    <t>161369727</t>
-  </si>
-  <si>
-    <t>161369750</t>
-  </si>
-  <si>
-    <t>161369747</t>
-  </si>
-  <si>
-    <t>GGTCATGACTGAGGGCACAG</t>
-  </si>
-  <si>
-    <t>98% (70)</t>
-  </si>
-  <si>
-    <t>72% (56)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 35, Doench 2016: 98%, Moreno-Mateos: 72%</t>
-  </si>
-  <si>
-    <t>1.53728E+11</t>
-  </si>
-  <si>
-    <t>161369789</t>
-  </si>
-  <si>
-    <t>161369812</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>161369809</t>
-  </si>
-  <si>
-    <t>TCAGGGCTGCAGCCAGAGCC</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>80% (61)</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 37, Doench 2016: 35%, Moreno-Mateos: 80%</t>
-  </si>
-  <si>
-    <t>2.20007E+11</t>
-  </si>
-  <si>
-    <t>161369910</t>
-  </si>
-  <si>
-    <t>161369933</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>161369930</t>
-  </si>
-  <si>
-    <t>GCCCTGGGGCCAGGCCACCG</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>91% (70)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 43, Doench 2016: 66%, Moreno-Mateos: 91%</t>
-  </si>
-  <si>
-    <t>1.52294E+11</t>
   </si>
 </sst>
 </file>
@@ -473,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1069,360 +892,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" t="s">
-        <v>89</v>
-      </c>
-      <c r="S11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" t="s">
-        <v>108</v>
-      </c>
-      <c r="S13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>114</v>
-      </c>
-      <c r="O14" t="s">
-        <v>115</v>
-      </c>
-      <c r="P14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" t="s">
-        <v>116</v>
-      </c>
-      <c r="S14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N15" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" t="s">
-        <v>124</v>
-      </c>
-      <c r="P15" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" t="s">
-        <v>126</v>
-      </c>
-      <c r="S15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>130</v>
-      </c>
-      <c r="N16" t="s">
-        <v>133</v>
-      </c>
-      <c r="O16" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>136</v>
-      </c>
-      <c r="R16" t="s">
-        <v>137</v>
-      </c>
-      <c r="S16" t="s">
-        <v>138</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
